--- a/BvnErp.Chains_SIT/WebApi/Content/templates/货物流转书模板.xlsx
+++ b/BvnErp.Chains_SIT/WebApi/Content/templates/货物流转书模板.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="货物确认流转书" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
-    <t xml:space="preserve">香港畅运国际物流有限公司                                                         货物流转确认单
+    <t xml:space="preserve">香港速逹國際物流有限公司                                                         货物流转确认单
 </t>
   </si>
   <si>
@@ -26,10 +39,10 @@
     <t>&amp;=$LotNumber</t>
   </si>
   <si>
-    <t>TO：深圳芯达通库房李先生 0755-83764658</t>
-  </si>
-  <si>
-    <t>FM：香港畅运库房  林先生 00852-31019258</t>
+    <t>TO：深圳华芯通库房李先生 0755-28014789</t>
+  </si>
+  <si>
+    <t>FM：香港速逹库房  马小姐 00852-23688398</t>
   </si>
   <si>
     <t>货物合计</t>
@@ -152,10 +165,10 @@
     <t>现场报关员</t>
   </si>
   <si>
-    <t>深圳芯达通库房</t>
-  </si>
-  <si>
-    <t>香港畅运国际物流有限公司</t>
+    <t>深圳华芯通库房</t>
+  </si>
+  <si>
+    <t>香港速逹國際物流有限公司</t>
   </si>
   <si>
     <t>日期：</t>
@@ -164,18 +177,18 @@
     <t>&amp;=$CurrentDateTime</t>
   </si>
   <si>
-    <t>HONGKONG CHANGYUN INTERNATIONAL LOGISTICS CO., LIMITED</t>
+    <t>HONG KONG EXPRESS INTERNATIONAL LOGISTICS LIMITED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -218,6 +231,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,10 +271,49 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,66 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,51 +340,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,13 +384,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,151 +534,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,26 +667,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,11 +715,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,183 +764,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,52 +996,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1090,90 +1103,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>86360</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>683895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="LogoCY"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86360" y="20320"/>
-          <a:ext cx="832485" cy="695960"/>
+          <a:off x="228600" y="635"/>
+          <a:ext cx="641985" cy="683260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1824355</xdr:colOff>
+      <xdr:colOff>1749425</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="复件 CCI20190509"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="HKSD"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FEFEFE">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FEFEFE">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="58914" t="71496" r="2441" b="11269"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="6845300"/>
-          <a:ext cx="2938780" cy="1867535"/>
+          <a:off x="3962400" y="7731125"/>
+          <a:ext cx="2540000" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1474,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/BvnErp.Chains_SIT/WebApi/Content/templates/货物流转书模板.xlsx
+++ b/BvnErp.Chains_SIT/WebApi/Content/templates/货物流转书模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="货物确认流转书" sheetId="3" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>责任人</t>
   </si>
   <si>
-    <t>香港畅运库房</t>
+    <t>香港速逹库房</t>
   </si>
   <si>
     <t>签名：             日期：</t>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
